--- a/data/trans_dic/P16A20_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Edad-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.01257036258128231</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.03646657538657965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.01257036258128231</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.03646657538657965</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.02381611961926543</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.01541162081892202</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.01193504415451372</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.04504343811086833</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.07391344516192756</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.04856092745889763</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.002850796969573816</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.03519009390429805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.002850796969573816</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.03519009390429805</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.01942044557208734</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.02114848463452677</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.01143534518815204</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.01415497614161128</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.05535412004951878</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.0314183679249408</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.006848165792646762</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.05991158949646101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.006848165792646762</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.05991158949646101</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.03340767838727489</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.001813781073077874</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.04641383997630345</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.0255169680767058</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.01592871106486318</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.07827347775503656</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.04348502449128226</v>
       </c>
     </row>
@@ -964,39 +729,12 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>0.01533620599176057</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.08454890872094332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.01533620599176057</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.08454890872094332</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
         <v>0.05081569971266803</v>
       </c>
     </row>
@@ -1007,22 +745,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.007437674144443796</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.06950485575511466</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.04211654281198418</v>
       </c>
     </row>
@@ -1033,22 +762,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.02712665804652502</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.1011753431430598</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.06079329713780479</v>
       </c>
     </row>
@@ -1064,39 +784,12 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>0.01601613002199854</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>0.1332920647185548</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.01601613002199854</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.1332920647185548</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
         <v>0.07457519289057987</v>
       </c>
     </row>
@@ -1107,22 +800,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.008821457627065984</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.1116443212988904</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.06357711351071955</v>
       </c>
     </row>
@@ -1133,22 +817,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.02748349208556047</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.1548685874368139</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.08849709743653049</v>
       </c>
     </row>
@@ -1164,39 +839,12 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0</v>
+        <v>0.02299781452310376</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>0.1241385108415374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0.02299781452310376</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0.1241385108415374</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
         <v>0.07546381412362786</v>
       </c>
     </row>
@@ -1207,22 +855,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="n">
+      <c r="C20" s="5" t="n">
         <v>0.01224860173609263</v>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.1011520086628502</v>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.06215455104523568</v>
       </c>
     </row>
@@ -1233,22 +872,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.03806977808029656</v>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.1481408062038629</v>
       </c>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.08910797368983263</v>
       </c>
     </row>
@@ -1264,39 +894,12 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.02197323727936184</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>0.09772805331098426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.02197323727936184</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>0.09772805331098426</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
         <v>0.06735218332631884</v>
       </c>
     </row>
@@ -1307,22 +910,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.01148920290262858</v>
       </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.07706521364497618</v>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.05471788656531981</v>
       </c>
     </row>
@@ -1333,22 +927,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="n">
+      <c r="C24" s="5" t="n">
         <v>0.03929958701468264</v>
       </c>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.11885304871061</v>
       </c>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>0.08366951564829543</v>
       </c>
     </row>
@@ -1364,39 +949,12 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0</v>
+        <v>0.01342203222106385</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0</v>
+        <v>0.08335939018949527</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>0.01342203222106385</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>0.08335939018949527</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
         <v>0.04935247601522098</v>
       </c>
     </row>
@@ -1407,22 +965,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr"/>
-      <c r="D26" s="5" t="inlineStr"/>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="n">
+      <c r="C26" s="5" t="n">
         <v>0.009490426092679763</v>
       </c>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr"/>
-      <c r="J26" s="5" t="n">
+      <c r="D26" s="5" t="n">
         <v>0.07564579918247535</v>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>0.04508302511540447</v>
       </c>
     </row>
@@ -1433,22 +982,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr"/>
-      <c r="D27" s="5" t="inlineStr"/>
-      <c r="E27" s="5" t="inlineStr"/>
-      <c r="F27" s="5" t="n">
+      <c r="C27" s="5" t="n">
         <v>0.01785674746800205</v>
       </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="5" t="inlineStr"/>
-      <c r="J27" s="5" t="n">
+      <c r="D27" s="5" t="n">
         <v>0.09057722051449342</v>
       </c>
-      <c r="K27" s="5" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>0.05406271006467305</v>
       </c>
     </row>
@@ -1460,7 +1000,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
@@ -1468,9 +1008,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
@@ -1484,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1500,21 +1037,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1523,85 +1051,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1613,15 +1087,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1635,39 +1100,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1679,39 +1117,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>5126</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>13220</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>5126</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>13220</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>18346</v>
       </c>
     </row>
@@ -1722,22 +1133,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>5587</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>9194</v>
       </c>
     </row>
@@ -1748,22 +1150,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>18368</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>26795</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>37407</v>
       </c>
     </row>
@@ -1779,39 +1172,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1823,39 +1189,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>17633</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>1360</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>17633</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>18993</v>
       </c>
     </row>
@@ -1866,22 +1205,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>10597</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>11183</v>
       </c>
     </row>
@@ -1892,22 +1222,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>6750</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>27737</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>30726</v>
       </c>
     </row>
@@ -1923,39 +1244,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1967,39 +1261,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>4252</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>37273</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>4252</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>37273</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>41525</v>
       </c>
     </row>
@@ -2010,22 +1277,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>1126</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>28876</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>31717</v>
       </c>
     </row>
@@ -2036,22 +1294,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>9889</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>48697</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>54051</v>
       </c>
     </row>
@@ -2067,39 +1316,12 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>98</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
         <v>108</v>
       </c>
     </row>
@@ -2111,39 +1333,12 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>10745</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0</v>
+        <v>62303</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>10745</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>62303</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="n">
         <v>73048</v>
       </c>
     </row>
@@ -2154,22 +1349,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>5211</v>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>51217</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>60543</v>
       </c>
     </row>
@@ -2180,22 +1366,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>19005</v>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>74555</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>87391</v>
       </c>
     </row>
@@ -2211,39 +1388,12 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>130</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="n">
         <v>141</v>
       </c>
     </row>
@@ -2255,39 +1405,12 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0</v>
+        <v>9744</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0</v>
+        <v>80871</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>9744</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>80871</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="n">
         <v>90615</v>
       </c>
     </row>
@@ -2298,22 +1421,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="n">
+      <c r="C22" s="6" t="n">
         <v>5367</v>
       </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="6" t="n">
+      <c r="D22" s="6" t="n">
         <v>67737</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
-      <c r="L22" s="6" t="inlineStr"/>
-      <c r="M22" s="6" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>77251</v>
       </c>
     </row>
@@ -2324,22 +1438,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="n">
+      <c r="C23" s="6" t="n">
         <v>16720</v>
       </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr"/>
-      <c r="I23" s="6" t="inlineStr"/>
-      <c r="J23" s="6" t="n">
+      <c r="D23" s="6" t="n">
         <v>93962</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
-      <c r="L23" s="6" t="inlineStr"/>
-      <c r="M23" s="6" t="inlineStr"/>
-      <c r="N23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>107531</v>
       </c>
     </row>
@@ -2355,39 +1460,12 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2399,39 +1477,12 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0</v>
+        <v>9362</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0</v>
+        <v>54470</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>9362</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>54470</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6" t="n">
         <v>63832</v>
       </c>
     </row>
@@ -2442,22 +1493,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="n">
+      <c r="C26" s="6" t="n">
         <v>4986</v>
       </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="J26" s="6" t="n">
+      <c r="D26" s="6" t="n">
         <v>44384</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
-      <c r="L26" s="6" t="inlineStr"/>
-      <c r="M26" s="6" t="inlineStr"/>
-      <c r="N26" s="6" t="n">
+      <c r="E26" s="6" t="n">
         <v>52574</v>
       </c>
     </row>
@@ -2468,22 +1510,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="n">
+      <c r="C27" s="6" t="n">
         <v>15497</v>
       </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="inlineStr"/>
-      <c r="J27" s="6" t="n">
+      <c r="D27" s="6" t="n">
         <v>65002</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
-      <c r="L27" s="6" t="inlineStr"/>
-      <c r="M27" s="6" t="inlineStr"/>
-      <c r="N27" s="6" t="n">
+      <c r="E27" s="6" t="n">
         <v>75373</v>
       </c>
     </row>
@@ -2499,39 +1532,12 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>83</v>
-      </c>
-      <c r="K28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="n">
         <v>93</v>
       </c>
     </row>
@@ -2543,39 +1549,12 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>0</v>
+        <v>6816</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0</v>
+        <v>45288</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>6816</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6" t="n">
-        <v>45288</v>
-      </c>
-      <c r="K29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="n">
         <v>52104</v>
       </c>
     </row>
@@ -2586,22 +1565,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="n">
+      <c r="C30" s="6" t="n">
         <v>3564</v>
       </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr"/>
-      <c r="I30" s="6" t="inlineStr"/>
-      <c r="J30" s="6" t="n">
+      <c r="D30" s="6" t="n">
         <v>35713</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
-      <c r="L30" s="6" t="inlineStr"/>
-      <c r="M30" s="6" t="inlineStr"/>
-      <c r="N30" s="6" t="n">
+      <c r="E30" s="6" t="n">
         <v>42330</v>
       </c>
     </row>
@@ -2612,22 +1582,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="n">
+      <c r="C31" s="6" t="n">
         <v>12191</v>
       </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr"/>
-      <c r="I31" s="6" t="inlineStr"/>
-      <c r="J31" s="6" t="n">
+      <c r="D31" s="6" t="n">
         <v>55078</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
-      <c r="L31" s="6" t="inlineStr"/>
-      <c r="M31" s="6" t="inlineStr"/>
-      <c r="N31" s="6" t="n">
+      <c r="E31" s="6" t="n">
         <v>64727</v>
       </c>
     </row>
@@ -2643,39 +1604,12 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6" t="n">
-        <v>488</v>
-      </c>
-      <c r="K32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6" t="n">
         <v>539</v>
       </c>
     </row>
@@ -2687,39 +1621,12 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0</v>
+        <v>47404</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0</v>
+        <v>311059</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>47404</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6" t="n">
-        <v>311059</v>
-      </c>
-      <c r="K33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6" t="n">
         <v>358463</v>
       </c>
     </row>
@@ -2730,22 +1637,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="F34" s="6" t="n">
+      <c r="C34" s="6" t="n">
         <v>33518</v>
       </c>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr"/>
-      <c r="I34" s="6" t="inlineStr"/>
-      <c r="J34" s="6" t="n">
+      <c r="D34" s="6" t="n">
         <v>282275</v>
       </c>
-      <c r="K34" s="6" t="inlineStr"/>
-      <c r="L34" s="6" t="inlineStr"/>
-      <c r="M34" s="6" t="inlineStr"/>
-      <c r="N34" s="6" t="n">
+      <c r="E34" s="6" t="n">
         <v>327452</v>
       </c>
     </row>
@@ -2756,22 +1654,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr"/>
-      <c r="D35" s="6" t="inlineStr"/>
-      <c r="E35" s="6" t="inlineStr"/>
-      <c r="F35" s="6" t="n">
+      <c r="C35" s="6" t="n">
         <v>63066</v>
       </c>
-      <c r="G35" s="6" t="inlineStr"/>
-      <c r="H35" s="6" t="inlineStr"/>
-      <c r="I35" s="6" t="inlineStr"/>
-      <c r="J35" s="6" t="n">
+      <c r="D35" s="6" t="n">
         <v>337993</v>
       </c>
-      <c r="K35" s="6" t="inlineStr"/>
-      <c r="L35" s="6" t="inlineStr"/>
-      <c r="M35" s="6" t="inlineStr"/>
-      <c r="N35" s="6" t="n">
+      <c r="E35" s="6" t="n">
         <v>392675</v>
       </c>
     </row>
@@ -2783,7 +1672,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
@@ -2791,9 +1680,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
